--- a/Hotp4ck60_rev.A/fab/Hotp4ck60-bottom-pos.xlsx
+++ b/Hotp4ck60_rev.A/fab/Hotp4ck60-bottom-pos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NNT\Documents\Keyboard\Hotp4ck60\fab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yg398\Documents\keyboard\Hotp4ck60\Hotp4ck60_rev.A\fab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="187">
   <si>
     <t>Designator</t>
   </si>
@@ -116,18 +116,6 @@
     <t>C25</t>
   </si>
   <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
@@ -377,9 +365,6 @@
     <t>USB_C_Receptacle_HRO_TYPE-C-31-M-12</t>
   </si>
   <si>
-    <t>J3</t>
-  </si>
-  <si>
     <t>Conn_01x02_MountingPin</t>
   </si>
   <si>
@@ -431,9 +416,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>2N7002</t>
-  </si>
-  <si>
     <t>SOT-23</t>
   </si>
   <si>
@@ -446,27 +428,9 @@
     <t>R_0402_1005Metric</t>
   </si>
   <si>
-    <t>R10</t>
-  </si>
-  <si>
     <t>10 kOhm</t>
   </si>
   <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>100 kOhm</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
     <t>1 MOhm</t>
   </si>
   <si>
@@ -476,9 +440,6 @@
     <t>R3</t>
   </si>
   <si>
-    <t>47 kOhm</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -494,9 +455,6 @@
     <t>R6</t>
   </si>
   <si>
-    <t>3.9 kOhm</t>
-  </si>
-  <si>
     <t>R7</t>
   </si>
   <si>
@@ -506,9 +464,6 @@
     <t>R9</t>
   </si>
   <si>
-    <t>100 Ohm</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -548,12 +503,6 @@
     <t>U3</t>
   </si>
   <si>
-    <t>BQ24075</t>
-  </si>
-  <si>
-    <t>VQFN-16-1EP_3x3mm_P0.5mm_EP1.6x1.6mm</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
@@ -606,23 +555,53 @@
   </si>
   <si>
     <t>Yellow</t>
+  </si>
+  <si>
+    <t>10 uF</t>
+  </si>
+  <si>
+    <t>C_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>D65</t>
+  </si>
+  <si>
+    <t>D_Schottky</t>
+  </si>
+  <si>
+    <t>D_SOD-123</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>AO3401A</t>
+  </si>
+  <si>
+    <t>1.2 kOhm</t>
+  </si>
+  <si>
+    <t>TP4056</t>
+  </si>
+  <si>
+    <t>SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.29x3mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -933,38 +912,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -978,7 +960,7 @@
         <v>165.42</v>
       </c>
       <c r="E2" s="1">
-        <v>-175.51236299999999</v>
+        <v>-175.51</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -987,7 +969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -998,24 +980,24 @@
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>168.10999699999999</v>
+        <v>167.15</v>
       </c>
       <c r="E3" s="1">
-        <v>-174.39</v>
+        <v>-174.26</v>
       </c>
       <c r="F3">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -1024,7 +1006,7 @@
         <v>167.15</v>
       </c>
       <c r="E4" s="1">
-        <v>-171.390004</v>
+        <v>-171.24</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1033,44 +1015,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>162.69999899999999</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>-173.54000199999999</v>
+        <v>-172.42</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>162.51</v>
+        <v>161.86000000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>-169.55</v>
+        <v>-168.42</v>
       </c>
       <c r="F6">
         <v>180</v>
@@ -1079,21 +1061,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>165.95757800000001</v>
+        <v>166.37</v>
       </c>
       <c r="E7" s="1">
-        <v>-158.944999</v>
+        <v>-158.55000000000001</v>
       </c>
       <c r="F7">
         <v>90</v>
@@ -1102,21 +1084,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>167.01</v>
+        <v>167.38</v>
       </c>
       <c r="E8" s="1">
-        <v>-158.94499999999999</v>
+        <v>-158.55000000000001</v>
       </c>
       <c r="F8">
         <v>90</v>
@@ -1125,9 +1107,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -1136,10 +1118,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>171.405</v>
+        <v>172.34</v>
       </c>
       <c r="E9" s="1">
-        <v>-161.92499799999999</v>
+        <v>-160.99</v>
       </c>
       <c r="F9">
         <v>90</v>
@@ -1148,9 +1130,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -1159,10 +1141,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>161.900004</v>
+        <v>162.22999999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>-164.939999</v>
+        <v>-163.55000000000001</v>
       </c>
       <c r="F10">
         <v>-90</v>
@@ -1171,7 +1153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1182,10 +1164,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>163.17000400000001</v>
+        <v>163.53</v>
       </c>
       <c r="E11" s="1">
-        <v>-165.50999899999999</v>
+        <v>-164.12</v>
       </c>
       <c r="F11">
         <v>-90</v>
@@ -1194,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1205,10 +1187,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>169.59</v>
+        <v>169.93</v>
       </c>
       <c r="E12" s="1">
-        <v>-172.08</v>
+        <v>-172.17</v>
       </c>
       <c r="F12">
         <v>-90</v>
@@ -1217,7 +1199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1228,19 +1210,19 @@
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>165.400003</v>
+        <v>164.84</v>
       </c>
       <c r="E13" s="1">
-        <v>-171.73999900000001</v>
+        <v>-171.23</v>
       </c>
       <c r="F13">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1251,10 +1233,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>165.11999800000001</v>
+        <v>165.29</v>
       </c>
       <c r="E14" s="1">
-        <v>-161.490003</v>
+        <v>-161</v>
       </c>
       <c r="F14">
         <v>90</v>
@@ -1263,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1274,10 +1256,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>164.02000100000001</v>
+        <v>164.28</v>
       </c>
       <c r="E15" s="1">
-        <v>-161.490005</v>
+        <v>-161.01</v>
       </c>
       <c r="F15">
         <v>90</v>
@@ -1286,7 +1268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1297,10 +1279,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>170.38</v>
+        <v>170.98</v>
       </c>
       <c r="E16" s="1">
-        <v>-161.91999999999999</v>
+        <v>-161.52000000000001</v>
       </c>
       <c r="F16">
         <v>90</v>
@@ -1309,7 +1291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1320,10 +1302,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>173.32</v>
+        <v>173.66</v>
       </c>
       <c r="E17" s="1">
-        <v>-166.73</v>
+        <v>-167.09</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1332,7 +1314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1343,10 +1325,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>173.2</v>
+        <v>173.66</v>
       </c>
       <c r="E18" s="1">
-        <v>-169.86</v>
+        <v>-169.89</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1355,7 +1337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1366,10 +1348,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>163.96</v>
+        <v>164.01</v>
       </c>
       <c r="E19" s="1">
-        <v>-169.12</v>
+        <v>-168.9</v>
       </c>
       <c r="F19">
         <v>-90</v>
@@ -1378,7 +1360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1392,7 +1374,7 @@
         <v>173.3</v>
       </c>
       <c r="E20" s="1">
-        <v>-164.37</v>
+        <v>-164.61</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1401,7 +1383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,10 +1394,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>173.29999900000001</v>
+        <v>173.27</v>
       </c>
       <c r="E21" s="1">
-        <v>-162.939999</v>
+        <v>-163.19999999999999</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1424,44 +1406,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>97.43</v>
+        <v>88.27</v>
       </c>
       <c r="E22" s="1">
-        <v>-128.56</v>
+        <v>-96.82</v>
       </c>
       <c r="F22">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="D23" s="1">
-        <v>98.42</v>
+        <v>92.5</v>
       </c>
       <c r="E23" s="1">
-        <v>-128.56</v>
+        <v>-122.33</v>
       </c>
       <c r="F23">
         <v>-90</v>
@@ -1470,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1481,10 +1463,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>101.47</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1">
-        <v>-130.57</v>
+        <v>-121.86</v>
       </c>
       <c r="F24">
         <v>-90</v>
@@ -1493,481 +1475,481 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="D25" s="1">
-        <v>102.51</v>
+        <v>104.52</v>
       </c>
       <c r="E25" s="1">
-        <v>-130.57</v>
+        <v>-121.8</v>
       </c>
       <c r="F25">
-        <v>-90</v>
+        <v>180</v>
       </c>
       <c r="G25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>101.94</v>
+        <v>127.39</v>
       </c>
       <c r="E26" s="1">
-        <v>-123.46</v>
+        <v>-127.7</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1">
-        <v>101.94</v>
+        <v>111.13</v>
       </c>
       <c r="E27" s="1">
-        <v>-124.45</v>
+        <v>-98.43</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1">
-        <v>113.745</v>
+        <v>107.95</v>
       </c>
       <c r="E28" s="1">
-        <v>-123.295</v>
+        <v>-98.43</v>
       </c>
       <c r="F28">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1">
-        <v>92.83</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1">
-        <v>-96.69</v>
+        <v>-98.43</v>
       </c>
       <c r="F29">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1">
+        <v>146.05000000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-98.43</v>
+      </c>
+      <c r="F30">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="1">
+        <v>165.1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-98.43</v>
+      </c>
+      <c r="F31">
+        <v>90</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="1">
+        <v>184.15</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-98.43</v>
+      </c>
+      <c r="F32">
+        <v>90</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1">
+        <v>203.2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-98.43</v>
+      </c>
+      <c r="F33">
+        <v>90</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="1">
+        <v>222.25</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-98.43</v>
+      </c>
+      <c r="F34">
+        <v>90</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="1">
+        <v>241.3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-98.43</v>
+      </c>
+      <c r="F35">
+        <v>90</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="1">
+        <v>260.35000000000002</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-98.43</v>
+      </c>
+      <c r="F36">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="1">
+        <v>279.39999999999998</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-98.43</v>
+      </c>
+      <c r="F37">
+        <v>90</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="1">
+        <v>298.45</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-98.43</v>
+      </c>
+      <c r="F38">
+        <v>90</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="1">
-        <v>111.125</v>
-      </c>
-      <c r="E30" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F30">
-        <v>90</v>
-      </c>
-      <c r="G30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="1">
-        <v>107.95</v>
-      </c>
-      <c r="E31" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F31">
-        <v>90</v>
-      </c>
-      <c r="G31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="1">
-        <v>127</v>
-      </c>
-      <c r="E32" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F32">
-        <v>90</v>
-      </c>
-      <c r="G32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="1">
-        <v>146.05000000000001</v>
-      </c>
-      <c r="E33" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F33">
-        <v>90</v>
-      </c>
-      <c r="G33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="1">
-        <v>165.1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F34">
-        <v>90</v>
-      </c>
-      <c r="G34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="1">
-        <v>184.15</v>
-      </c>
-      <c r="E35" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F35">
-        <v>90</v>
-      </c>
-      <c r="G35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="1">
-        <v>203.2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F36">
-        <v>90</v>
-      </c>
-      <c r="G36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="1">
-        <v>222.25</v>
-      </c>
-      <c r="E37" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F37">
-        <v>90</v>
-      </c>
-      <c r="G37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="1">
-        <v>241.3</v>
-      </c>
-      <c r="E38" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F38">
-        <v>90</v>
-      </c>
-      <c r="G38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="1">
+        <v>317.5</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-98.43</v>
+      </c>
+      <c r="F39">
+        <v>90</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="1">
-        <v>260.35000000000002</v>
-      </c>
-      <c r="E39" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F39">
-        <v>90</v>
-      </c>
-      <c r="G39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="1">
+        <v>330.2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-98.43</v>
+      </c>
+      <c r="F40">
+        <v>90</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="1">
-        <v>279.39999999999998</v>
-      </c>
-      <c r="E40" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F40">
-        <v>90</v>
-      </c>
-      <c r="G40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="1">
+        <v>77.790000000000006</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-117.48</v>
+      </c>
+      <c r="F41">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="1">
-        <v>298.45</v>
-      </c>
-      <c r="E41" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F41">
-        <v>90</v>
-      </c>
-      <c r="G41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="1">
+        <v>117.48</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-117.48</v>
+      </c>
+      <c r="F42">
+        <v>90</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="1">
-        <v>317.5</v>
-      </c>
-      <c r="E42" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F42">
-        <v>90</v>
-      </c>
-      <c r="G42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="1">
+        <v>136.53</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-117.48</v>
+      </c>
+      <c r="F43">
+        <v>90</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="1">
-        <v>330.2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>-98.424999999999997</v>
-      </c>
-      <c r="F43">
-        <v>90</v>
-      </c>
-      <c r="G43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="1">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-117.48</v>
+      </c>
+      <c r="F44">
+        <v>90</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="1">
-        <v>77.787499999999994</v>
-      </c>
-      <c r="E44" s="1">
-        <v>-117.47499999999999</v>
-      </c>
-      <c r="F44">
-        <v>90</v>
-      </c>
-      <c r="G44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1">
-        <v>117.47499999999999</v>
+        <v>174.63</v>
       </c>
       <c r="E45" s="1">
-        <v>-117.47499999999999</v>
+        <v>-117.48</v>
       </c>
       <c r="F45">
         <v>90</v>
@@ -1976,21 +1958,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D46" s="1">
-        <v>136.52500000000001</v>
+        <v>193.68</v>
       </c>
       <c r="E46" s="1">
-        <v>-117.47499999999999</v>
+        <v>-117.48</v>
       </c>
       <c r="F46">
         <v>90</v>
@@ -1999,21 +1981,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D47" s="1">
-        <v>139.69999999999999</v>
+        <v>212.73</v>
       </c>
       <c r="E47" s="1">
-        <v>-117.47499999999999</v>
+        <v>-117.48</v>
       </c>
       <c r="F47">
         <v>90</v>
@@ -2022,21 +2004,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D48" s="1">
-        <v>174.625</v>
+        <v>231.78</v>
       </c>
       <c r="E48" s="1">
-        <v>-117.47499999999999</v>
+        <v>-117.48</v>
       </c>
       <c r="F48">
         <v>90</v>
@@ -2045,159 +2027,159 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="1">
+        <v>250.83</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-117.48</v>
+      </c>
+      <c r="F49">
+        <v>90</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="1">
-        <v>193.67500000000001</v>
-      </c>
-      <c r="E49" s="1">
-        <v>-117.47499999999999</v>
-      </c>
-      <c r="F49">
-        <v>90</v>
-      </c>
-      <c r="G49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="1">
+        <v>269.88</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-117.48</v>
+      </c>
+      <c r="F50">
+        <v>90</v>
+      </c>
+      <c r="G50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="1">
-        <v>212.72499999999999</v>
-      </c>
-      <c r="E50" s="1">
-        <v>-117.47499999999999</v>
-      </c>
-      <c r="F50">
-        <v>90</v>
-      </c>
-      <c r="G50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="1">
+        <v>288.93</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-117.48</v>
+      </c>
+      <c r="F51">
+        <v>90</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="1">
-        <v>232.56874999999999</v>
-      </c>
-      <c r="E51" s="1">
-        <v>-117.47499999999999</v>
-      </c>
-      <c r="F51">
-        <v>90</v>
-      </c>
-      <c r="G51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="1">
+        <v>307.98</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-117.48</v>
+      </c>
+      <c r="F52">
+        <v>90</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="1">
-        <v>250.82499999999999</v>
-      </c>
-      <c r="E52" s="1">
-        <v>-117.47499999999999</v>
-      </c>
-      <c r="F52">
-        <v>90</v>
-      </c>
-      <c r="G52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="1">
+        <v>311.14999999999998</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-117.48</v>
+      </c>
+      <c r="F53">
+        <v>90</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="1">
-        <v>269.875</v>
-      </c>
-      <c r="E53" s="1">
-        <v>-117.47499999999999</v>
-      </c>
-      <c r="F53">
-        <v>90</v>
-      </c>
-      <c r="G53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="1">
+        <v>350.84</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-117.48</v>
+      </c>
+      <c r="F54">
+        <v>90</v>
+      </c>
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="1">
-        <v>288.92500000000001</v>
-      </c>
-      <c r="E54" s="1">
-        <v>-117.47499999999999</v>
-      </c>
-      <c r="F54">
-        <v>90</v>
-      </c>
-      <c r="G54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="B55" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D55" s="1">
-        <v>307.97500000000002</v>
+        <v>80.17</v>
       </c>
       <c r="E55" s="1">
-        <v>-117.47499999999999</v>
+        <v>-136.53</v>
       </c>
       <c r="F55">
         <v>90</v>
@@ -2206,21 +2188,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D56" s="1">
-        <v>311.14999999999998</v>
+        <v>122.24</v>
       </c>
       <c r="E56" s="1">
-        <v>-117.47499999999999</v>
+        <v>-136.53</v>
       </c>
       <c r="F56">
         <v>90</v>
@@ -2229,21 +2211,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D57" s="1">
-        <v>350.83749999999998</v>
+        <v>141.29</v>
       </c>
       <c r="E57" s="1">
-        <v>-117.47499999999999</v>
+        <v>-136.53</v>
       </c>
       <c r="F57">
         <v>90</v>
@@ -2252,21 +2234,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D58" s="1">
-        <v>80.168750000000003</v>
+        <v>144.46</v>
       </c>
       <c r="E58" s="1">
-        <v>-136.52500000000001</v>
+        <v>-136.53</v>
       </c>
       <c r="F58">
         <v>90</v>
@@ -2275,159 +2257,159 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="1">
+        <v>179.39</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-136.53</v>
+      </c>
+      <c r="F59">
+        <v>90</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D59" s="1">
-        <v>122.2375</v>
-      </c>
-      <c r="E59" s="1">
-        <v>-136.52500000000001</v>
-      </c>
-      <c r="F59">
-        <v>90</v>
-      </c>
-      <c r="G59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="1">
+        <v>182.56</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-136.53</v>
+      </c>
+      <c r="F60">
+        <v>90</v>
+      </c>
+      <c r="G60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="1">
-        <v>141.28749999999999</v>
-      </c>
-      <c r="E60" s="1">
-        <v>-136.52500000000001</v>
-      </c>
-      <c r="F60">
-        <v>90</v>
-      </c>
-      <c r="G60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="1">
+        <v>217.49</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-136.53</v>
+      </c>
+      <c r="F61">
+        <v>90</v>
+      </c>
+      <c r="G61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="1">
-        <v>144.46250000000001</v>
-      </c>
-      <c r="E61" s="1">
-        <v>-136.52500000000001</v>
-      </c>
-      <c r="F61">
-        <v>90</v>
-      </c>
-      <c r="G61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" s="1">
+        <v>236.54</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-136.53</v>
+      </c>
+      <c r="F62">
+        <v>90</v>
+      </c>
+      <c r="G62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="1">
-        <v>179.38749999999999</v>
-      </c>
-      <c r="E62" s="1">
-        <v>-136.52500000000001</v>
-      </c>
-      <c r="F62">
-        <v>90</v>
-      </c>
-      <c r="G62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="1">
+        <v>255.59</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-136.53</v>
+      </c>
+      <c r="F63">
+        <v>90</v>
+      </c>
+      <c r="G63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="1">
-        <v>182.5625</v>
-      </c>
-      <c r="E63" s="1">
-        <v>-136.52500000000001</v>
-      </c>
-      <c r="F63">
-        <v>90</v>
-      </c>
-      <c r="G63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="1">
+        <v>274.64</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-136.53</v>
+      </c>
+      <c r="F64">
+        <v>90</v>
+      </c>
+      <c r="G64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="1">
-        <v>217.48750000000001</v>
-      </c>
-      <c r="E64" s="1">
-        <v>-136.52500000000001</v>
-      </c>
-      <c r="F64">
-        <v>90</v>
-      </c>
-      <c r="G64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="B65" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D65" s="1">
-        <v>236.53749999999999</v>
+        <v>293.69</v>
       </c>
       <c r="E65" s="1">
-        <v>-136.52500000000001</v>
+        <v>-136.53</v>
       </c>
       <c r="F65">
         <v>90</v>
@@ -2436,21 +2418,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D66" s="1">
-        <v>255.58750000000001</v>
+        <v>312.74</v>
       </c>
       <c r="E66" s="1">
-        <v>-136.52500000000001</v>
+        <v>-136.53</v>
       </c>
       <c r="F66">
         <v>90</v>
@@ -2459,21 +2441,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D67" s="1">
-        <v>274.63749999999999</v>
+        <v>327.82</v>
       </c>
       <c r="E67" s="1">
-        <v>-136.52500000000001</v>
+        <v>-136.53</v>
       </c>
       <c r="F67">
         <v>90</v>
@@ -2482,21 +2464,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D68" s="1">
-        <v>293.6875</v>
+        <v>100.81</v>
       </c>
       <c r="E68" s="1">
-        <v>-136.52500000000001</v>
+        <v>-155.58000000000001</v>
       </c>
       <c r="F68">
         <v>90</v>
@@ -2505,159 +2487,159 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="1">
+        <v>131.76</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-155.58000000000001</v>
+      </c>
+      <c r="F69">
+        <v>90</v>
+      </c>
+      <c r="G69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="1">
-        <v>312.73750000000001</v>
-      </c>
-      <c r="E69" s="1">
-        <v>-136.52500000000001</v>
-      </c>
-      <c r="F69">
-        <v>90</v>
-      </c>
-      <c r="G69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="1">
+        <v>134.94</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-155.58000000000001</v>
+      </c>
+      <c r="F70">
+        <v>90</v>
+      </c>
+      <c r="G70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" s="1">
-        <v>327.81875000000002</v>
-      </c>
-      <c r="E70" s="1">
-        <v>-136.52500000000001</v>
-      </c>
-      <c r="F70">
-        <v>90</v>
-      </c>
-      <c r="G70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="1">
+        <v>153.99</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-155.58000000000001</v>
+      </c>
+      <c r="F71">
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D71" s="1">
-        <v>100.80625000000001</v>
-      </c>
-      <c r="E71" s="1">
-        <v>-155.57499999999999</v>
-      </c>
-      <c r="F71">
-        <v>90</v>
-      </c>
-      <c r="G71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="1">
+        <v>188.91</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-155.58000000000001</v>
+      </c>
+      <c r="F72">
+        <v>90</v>
+      </c>
+      <c r="G72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="1">
-        <v>131.76249999999999</v>
-      </c>
-      <c r="E72" s="1">
-        <v>-155.57499999999999</v>
-      </c>
-      <c r="F72">
-        <v>90</v>
-      </c>
-      <c r="G72" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="1">
+        <v>207.96</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-155.58000000000001</v>
+      </c>
+      <c r="F73">
+        <v>90</v>
+      </c>
+      <c r="G73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="1">
-        <v>150.8125</v>
-      </c>
-      <c r="E73" s="1">
-        <v>-155.57499999999999</v>
-      </c>
-      <c r="F73">
-        <v>90</v>
-      </c>
-      <c r="G73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="1">
+        <v>211.14</v>
+      </c>
+      <c r="E74" s="1">
+        <v>-155.58000000000001</v>
+      </c>
+      <c r="F74">
+        <v>90</v>
+      </c>
+      <c r="G74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="1">
-        <v>153.98750000000001</v>
-      </c>
-      <c r="E74" s="1">
-        <v>-155.57499999999999</v>
-      </c>
-      <c r="F74">
-        <v>90</v>
-      </c>
-      <c r="G74" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="B75" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D75" s="1">
-        <v>188.91249999999999</v>
+        <v>246.06</v>
       </c>
       <c r="E75" s="1">
-        <v>-155.57499999999999</v>
+        <v>-155.58000000000001</v>
       </c>
       <c r="F75">
         <v>90</v>
@@ -2666,21 +2648,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D76" s="1">
-        <v>207.96250000000001</v>
+        <v>265.11</v>
       </c>
       <c r="E76" s="1">
-        <v>-155.57499999999999</v>
+        <v>-155.58000000000001</v>
       </c>
       <c r="F76">
         <v>90</v>
@@ -2689,21 +2671,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D77" s="1">
-        <v>227.01249999999999</v>
+        <v>284.16000000000003</v>
       </c>
       <c r="E77" s="1">
-        <v>-155.57499999999999</v>
+        <v>-155.58000000000001</v>
       </c>
       <c r="F77">
         <v>90</v>
@@ -2712,21 +2694,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D78" s="1">
-        <v>246.0625</v>
+        <v>303.20999999999998</v>
       </c>
       <c r="E78" s="1">
-        <v>-155.57499999999999</v>
+        <v>-155.58000000000001</v>
       </c>
       <c r="F78">
         <v>90</v>
@@ -2735,21 +2717,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D79" s="1">
-        <v>265.11250000000001</v>
+        <v>323.08</v>
       </c>
       <c r="E79" s="1">
-        <v>-155.57499999999999</v>
+        <v>-155.58000000000001</v>
       </c>
       <c r="F79">
         <v>90</v>
@@ -2758,87 +2740,87 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" s="1">
+        <v>91.28</v>
+      </c>
+      <c r="E80" s="1">
+        <v>-165.1</v>
+      </c>
+      <c r="F80">
+        <v>-90</v>
+      </c>
+      <c r="G80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" s="1">
-        <v>284.16250000000002</v>
-      </c>
-      <c r="E80" s="1">
-        <v>-155.57499999999999</v>
-      </c>
-      <c r="F80">
-        <v>90</v>
-      </c>
-      <c r="G80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="1">
+        <v>115.09</v>
+      </c>
+      <c r="E81" s="1">
+        <v>-165.1</v>
+      </c>
+      <c r="F81">
+        <v>-90</v>
+      </c>
+      <c r="G81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="1">
-        <v>303.21249999999998</v>
-      </c>
-      <c r="E81" s="1">
-        <v>-155.57499999999999</v>
-      </c>
-      <c r="F81">
-        <v>90</v>
-      </c>
-      <c r="G81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="1">
+        <v>138.91</v>
+      </c>
+      <c r="E82" s="1">
+        <v>-165.1</v>
+      </c>
+      <c r="F82">
+        <v>-90</v>
+      </c>
+      <c r="G82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" s="1">
-        <v>323.08</v>
-      </c>
-      <c r="E82" s="1">
-        <v>-155.57499999999999</v>
-      </c>
-      <c r="F82">
-        <v>90</v>
-      </c>
-      <c r="G82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="B83" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D83" s="1">
-        <v>91.28125</v>
+        <v>210.34</v>
       </c>
       <c r="E83" s="1">
         <v>-165.1</v>
@@ -2850,18 +2832,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D84" s="1">
-        <v>115.09375</v>
+        <v>284.16000000000003</v>
       </c>
       <c r="E84" s="1">
         <v>-165.1</v>
@@ -2873,18 +2855,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D85" s="1">
-        <v>138.90625</v>
+        <v>305.58999999999997</v>
       </c>
       <c r="E85" s="1">
         <v>-165.1</v>
@@ -2896,18 +2878,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D86" s="1">
-        <v>210.34375</v>
+        <v>329.41</v>
       </c>
       <c r="E86" s="1">
         <v>-165.1</v>
@@ -2919,18 +2901,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D87" s="1">
-        <v>284.16250000000002</v>
+        <v>337.34</v>
       </c>
       <c r="E87" s="1">
         <v>-165.1</v>
@@ -2942,18 +2924,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D88" s="1">
-        <v>305.59375</v>
+        <v>146.84</v>
       </c>
       <c r="E88" s="1">
         <v>-165.1</v>
@@ -2965,18 +2947,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D89" s="1">
-        <v>329.40625</v>
+        <v>246.86</v>
       </c>
       <c r="E89" s="1">
         <v>-165.1</v>
@@ -2988,21 +2970,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D90" s="1">
-        <v>337.34375</v>
+        <v>87.32</v>
       </c>
       <c r="E90" s="1">
-        <v>-165.1</v>
+        <v>-100.33</v>
       </c>
       <c r="F90">
         <v>-90</v>
@@ -3011,44 +2993,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="D91" s="1">
-        <v>146.84375</v>
+        <v>93.79</v>
       </c>
       <c r="E91" s="1">
-        <v>-165.1</v>
+        <v>-102.81</v>
       </c>
       <c r="F91">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="G91" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="D92" s="1">
-        <v>246.85624999999999</v>
+        <v>92.19</v>
       </c>
       <c r="E92" s="1">
-        <v>-165.1</v>
+        <v>-96.88</v>
       </c>
       <c r="F92">
         <v>-90</v>
@@ -3057,159 +3039,159 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D93" s="1">
-        <v>93.84</v>
+        <v>90.01</v>
       </c>
       <c r="E93" s="1">
-        <v>-100.3325</v>
+        <v>-89.47</v>
       </c>
       <c r="F93">
-        <v>90</v>
+        <v>-180</v>
       </c>
       <c r="G93" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D94" s="1">
-        <v>89.34</v>
+        <v>122.08</v>
       </c>
       <c r="E94" s="1">
-        <v>-96.55</v>
+        <v>-124.54</v>
       </c>
       <c r="F94">
+        <v>90</v>
+      </c>
+      <c r="G94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="1">
+        <v>167.63</v>
+      </c>
+      <c r="E95" s="1">
+        <v>-172.75</v>
+      </c>
+      <c r="F95">
+        <v>90</v>
+      </c>
+      <c r="G95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96" s="1">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="E96" s="1">
+        <v>-161.79</v>
+      </c>
+      <c r="F96">
+        <v>180</v>
+      </c>
+      <c r="G96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="1">
+        <v>160.72999999999999</v>
+      </c>
+      <c r="E97" s="1">
+        <v>-163.07</v>
+      </c>
+      <c r="F97">
         <v>-90</v>
       </c>
-      <c r="G94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D95" s="1">
-        <v>90.01</v>
-      </c>
-      <c r="E95" s="1">
-        <v>-89.47</v>
-      </c>
-      <c r="F95">
-        <v>-180</v>
-      </c>
-      <c r="G95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" s="1">
-        <v>121.29</v>
-      </c>
-      <c r="E96" s="1">
-        <v>-124.855</v>
-      </c>
-      <c r="F96">
-        <v>90</v>
-      </c>
-      <c r="G96" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" s="1">
-        <v>167.629997</v>
-      </c>
-      <c r="E97" s="1">
-        <v>-172.88999899999999</v>
-      </c>
-      <c r="F97">
-        <v>90</v>
-      </c>
       <c r="G97" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="1">
+        <v>173.62</v>
+      </c>
+      <c r="E98" s="1">
+        <v>-161.12</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D98" s="1">
-        <v>162.9</v>
-      </c>
-      <c r="E98" s="1">
-        <v>-163.21</v>
-      </c>
-      <c r="F98">
-        <v>180</v>
-      </c>
-      <c r="G98" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C99" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D99" s="1">
-        <v>160.849997</v>
+        <v>91.98</v>
       </c>
       <c r="E99" s="1">
-        <v>-164.16000199999999</v>
+        <v>-95.67</v>
       </c>
       <c r="F99">
         <v>-90</v>
@@ -3218,44 +3200,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D100" s="1">
-        <v>173.48169899999999</v>
+        <v>89.74</v>
       </c>
       <c r="E100" s="1">
-        <v>-161.61868200000001</v>
+        <v>-96.33</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="G100" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="D101" s="1">
-        <v>88.04</v>
+        <v>97.98</v>
       </c>
       <c r="E101" s="1">
-        <v>-96</v>
+        <v>-137.05000000000001</v>
       </c>
       <c r="F101">
         <v>-90</v>
@@ -3264,21 +3246,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="D102" s="1">
-        <v>91.34</v>
+        <v>97.98</v>
       </c>
       <c r="E102" s="1">
-        <v>-96.204999999999998</v>
+        <v>-133.80000000000001</v>
       </c>
       <c r="F102">
         <v>-90</v>
@@ -3287,44 +3269,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" s="1">
+        <v>100.5</v>
+      </c>
+      <c r="E103" s="1">
+        <v>-127.78</v>
+      </c>
+      <c r="F103">
+        <v>90</v>
+      </c>
+      <c r="G103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D103" s="1">
-        <v>103.92</v>
-      </c>
-      <c r="E103" s="1">
-        <v>-137.05000000000001</v>
-      </c>
-      <c r="F103">
-        <v>-90</v>
-      </c>
-      <c r="G103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="D104" s="1">
-        <v>103.92</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="E104" s="1">
-        <v>-133.80000000000001</v>
+        <v>-92.95</v>
       </c>
       <c r="F104">
         <v>-90</v>
@@ -3333,67 +3315,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D105" s="1">
-        <v>97.86</v>
+        <v>80.37</v>
       </c>
       <c r="E105" s="1">
-        <v>-123.16</v>
+        <v>-92.95</v>
       </c>
       <c r="F105">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G105" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="1">
+        <v>103.02</v>
+      </c>
+      <c r="E106" s="1">
+        <v>-124.44</v>
+      </c>
+      <c r="F106">
+        <v>90</v>
+      </c>
+      <c r="G106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D106" s="1">
-        <v>81.430000000000007</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-92.95</v>
-      </c>
-      <c r="F106">
-        <v>-90</v>
-      </c>
-      <c r="G106" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="B107" s="1" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D107" s="1">
-        <v>80.37</v>
+        <v>94.5</v>
       </c>
       <c r="E107" s="1">
-        <v>-92.95</v>
+        <v>-124.44</v>
       </c>
       <c r="F107">
         <v>-90</v>
@@ -3402,44 +3384,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7">
       <c r="A108" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D108" s="1">
+        <v>161.19999999999999</v>
+      </c>
+      <c r="E108" s="1">
+        <v>-165.02</v>
+      </c>
+      <c r="F108">
+        <v>180</v>
+      </c>
+      <c r="G108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D108" s="1">
-        <v>97.33</v>
-      </c>
-      <c r="E108" s="1">
-        <v>-126.47</v>
-      </c>
-      <c r="F108">
-        <v>90</v>
-      </c>
-      <c r="G108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D109" s="1">
-        <v>99.54</v>
+        <v>95.41</v>
       </c>
       <c r="E109" s="1">
-        <v>-130.37</v>
+        <v>-100.65</v>
       </c>
       <c r="F109">
         <v>-90</v>
@@ -3448,182 +3430,182 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D110" s="1">
+        <v>177.23</v>
+      </c>
+      <c r="E110" s="1">
+        <v>-162.38</v>
+      </c>
+      <c r="F110">
+        <v>90</v>
+      </c>
+      <c r="G110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="1">
+        <v>177.23</v>
+      </c>
+      <c r="E111" s="1">
+        <v>-163.41</v>
+      </c>
+      <c r="F111">
+        <v>180</v>
+      </c>
+      <c r="G111" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D112" s="1">
+        <v>88.27</v>
+      </c>
+      <c r="E112" s="1">
+        <v>-95.83</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" s="1">
+        <v>187.04</v>
+      </c>
+      <c r="E113" s="1">
+        <v>-161.84</v>
+      </c>
+      <c r="F113">
+        <v>-90</v>
+      </c>
+      <c r="G113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D114" s="1">
+        <v>104.12</v>
+      </c>
+      <c r="E114" s="1">
+        <v>-135.46</v>
+      </c>
+      <c r="F114">
+        <v>-90</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D110" s="1">
-        <v>161.43</v>
-      </c>
-      <c r="E110" s="1">
-        <v>-166.71</v>
-      </c>
-      <c r="F110">
+      <c r="D115" s="1">
+        <v>168.4</v>
+      </c>
+      <c r="E115" s="1">
+        <v>-166.84</v>
+      </c>
+      <c r="F115">
         <v>180</v>
       </c>
-      <c r="G110" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="G115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D111" s="1">
-        <v>98.4</v>
-      </c>
-      <c r="E111" s="1">
-        <v>-126.47</v>
-      </c>
-      <c r="F111">
-        <v>-90</v>
-      </c>
-      <c r="G111" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D112" s="1">
-        <v>100.1</v>
-      </c>
-      <c r="E112" s="1">
-        <v>-124.15</v>
-      </c>
-      <c r="F112">
-        <v>90</v>
-      </c>
-      <c r="G112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="D116" s="1">
+        <v>90.52</v>
+      </c>
+      <c r="E116" s="1">
+        <v>-99.31</v>
+      </c>
+      <c r="F116">
+        <v>180</v>
+      </c>
+      <c r="G116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D113" s="1">
-        <v>103.97</v>
-      </c>
-      <c r="E113" s="1">
-        <v>-129.94</v>
-      </c>
-      <c r="F113">
-        <v>180</v>
-      </c>
-      <c r="G113" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D114" s="1">
-        <v>95.13</v>
-      </c>
-      <c r="E114" s="1">
-        <v>-122.65</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D115" s="1">
-        <v>95.58</v>
-      </c>
-      <c r="E115" s="1">
-        <v>-124.15</v>
-      </c>
-      <c r="F115">
-        <v>-90</v>
-      </c>
-      <c r="G115" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D116" s="1">
-        <v>100.11</v>
-      </c>
-      <c r="E116" s="1">
-        <v>-122.1</v>
-      </c>
-      <c r="F116">
-        <v>-90</v>
-      </c>
-      <c r="G116" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="B117" s="1" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="D117" s="1">
-        <v>169.13</v>
+        <v>98.73</v>
       </c>
       <c r="E117" s="1">
-        <v>-160.41999999999999</v>
+        <v>-123.29</v>
       </c>
       <c r="F117">
         <v>180</v>
@@ -3632,235 +3614,109 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7">
       <c r="A118" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D118" s="1">
-        <v>168.86</v>
+        <v>129.57</v>
       </c>
       <c r="E118" s="1">
-        <v>-161.47999999999999</v>
+        <v>-128.18</v>
       </c>
       <c r="F118">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G118" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="D119" s="1">
-        <v>92.83</v>
+        <v>161.99</v>
       </c>
       <c r="E119" s="1">
-        <v>-95.68</v>
+        <v>-170.42</v>
       </c>
       <c r="F119">
-        <v>180</v>
+        <v>-90</v>
       </c>
       <c r="G119" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7">
       <c r="A120" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D120" s="1">
-        <v>186.85</v>
+        <v>166.83</v>
       </c>
       <c r="E120" s="1">
-        <v>-162.61000000000001</v>
+        <v>-160.84</v>
       </c>
       <c r="F120">
-        <v>90</v>
+        <v>-180</v>
       </c>
       <c r="G120" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D121" s="1">
-        <v>97.12</v>
-      </c>
-      <c r="E121" s="1">
-        <v>-135.41</v>
-      </c>
-      <c r="F121">
-        <v>-90</v>
-      </c>
-      <c r="G121" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D122" s="1">
-        <v>168.4</v>
-      </c>
-      <c r="E122" s="1">
-        <v>-166.83999900000001</v>
-      </c>
-      <c r="F122">
-        <v>-180</v>
-      </c>
-      <c r="G122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D123" s="1">
-        <v>90.51</v>
-      </c>
-      <c r="E123" s="1">
-        <v>-99.85</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D124" s="1">
-        <v>101.45</v>
-      </c>
-      <c r="E124" s="1">
-        <v>-127.28</v>
-      </c>
-      <c r="F124">
-        <v>-90</v>
-      </c>
-      <c r="G124" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D125" s="1">
-        <v>114.22499999999999</v>
-      </c>
-      <c r="E125" s="1">
-        <v>-121.11499999999999</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D126" s="1">
-        <v>162.699996</v>
-      </c>
-      <c r="E126" s="1">
-        <v>-171.54000199999999</v>
-      </c>
-      <c r="F126">
-        <v>90</v>
-      </c>
-      <c r="G126" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D127" s="1">
-        <v>166.757576</v>
-      </c>
-      <c r="E127" s="1">
-        <v>-161.24000100000001</v>
-      </c>
-      <c r="F127">
-        <v>90</v>
-      </c>
-      <c r="G127" t="s">
-        <v>4</v>
-      </c>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
